--- a/Base/Teams/Dolphins/Players Stats.xlsx
+++ b/Base/Teams/Dolphins/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Dolphins/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Dolphins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB2CFA6C-44A1-4B7D-A126-C1FB90B3BF72}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5963E07-824A-44C9-995B-241BA90E6CA6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>P.Lindsay</t>
+  </si>
+  <si>
+    <t>T.Lewis</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -849,10 +852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,6 +1244,38 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
